--- a/Paper/CameraSpecs.xlsx
+++ b/Paper/CameraSpecs.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian_000\Documents\GradSchool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="11832"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Required</t>
   </si>
@@ -54,6 +49,9 @@
   </si>
   <si>
     <t>LG G4 (front)</t>
+  </si>
+  <si>
+    <t>Commit test</t>
   </si>
 </sst>
 </file>
@@ -61,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -304,7 +302,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,13 +586,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -635,7 +633,7 @@
         <v>9.2382000000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -656,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -677,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -698,7 +696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -719,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="14" t="str">
         <f>IF(ISBLANK(F7),"",SQRT(F7*E7)*1000)</f>
@@ -733,7 +731,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="14" t="str">
         <f t="shared" ref="B8:B13" si="2">IF(ISBLANK(F8),"",SQRT(F8*E8)*1000)</f>
@@ -747,7 +745,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="14" t="str">
         <f t="shared" si="2"/>
@@ -761,7 +759,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -775,7 +773,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="14" t="str">
         <f t="shared" si="2"/>
@@ -789,7 +787,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="14" t="str">
         <f t="shared" si="2"/>
@@ -804,7 +802,9 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="16" t="str">
         <f t="shared" si="2"/>
         <v/>
